--- a/team_specific_matrix/Spalding_A.xlsx
+++ b/team_specific_matrix/Spalding_A.xlsx
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1428571428571428</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1428571428571428</v>
+        <v>0.07142857142857142</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.07692307692307693</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.07692307692307693</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0.4615384615384616</v>
+        <v>0.4230769230769231</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,7 +793,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09090909090909091</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -805,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.09090909090909091</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09090909090909091</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.09090909090909091</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.09090909090909091</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0.5454545454545454</v>
+        <v>0.5789473684210527</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,7 +852,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.03125</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.0625</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.0625</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.06666666666666667</v>
+        <v>0.15625</v>
       </c>
       <c r="R8">
-        <v>0.1333333333333333</v>
+        <v>0.09375</v>
       </c>
       <c r="S8">
-        <v>0.7333333333333333</v>
+        <v>0.53125</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,7 +911,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1428571428571428</v>
+        <v>0.1</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.1428571428571428</v>
+        <v>0.1</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1428571428571428</v>
+        <v>0.1</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>0.5714285714285714</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1052631578947368</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.131578947368421</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.07894736842105263</v>
+        <v>0.08974358974358974</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1842105263157895</v>
+        <v>0.217948717948718</v>
       </c>
       <c r="R10">
-        <v>0.05263157894736842</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="S10">
-        <v>0.4473684210526316</v>
+        <v>0.3974358974358974</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="G11">
-        <v>0.1875</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0625</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="K11">
-        <v>0.1875</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="L11">
-        <v>0.5625</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>0.03703703703703703</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.5</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.1</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.2</v>
+        <v>0.1176470588235294</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.2</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,22 +1277,22 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="K15">
-        <v>0.2</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.4</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1342,22 +1342,22 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="K16">
-        <v>0.6</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.2</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.1</v>
+        <v>0.0625</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1</v>
+        <v>0.15625</v>
       </c>
       <c r="I17">
-        <v>0.2</v>
+        <v>0.125</v>
       </c>
       <c r="J17">
-        <v>0.1</v>
+        <v>0.21875</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.03125</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.1</v>
+        <v>0.0625</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.0625</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.4</v>
+        <v>0.28125</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.25</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1475,7 +1475,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.25</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.046875</v>
+        <v>0.03738317757009346</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.15625</v>
+        <v>0.205607476635514</v>
       </c>
       <c r="I19">
-        <v>0.078125</v>
+        <v>0.04672897196261682</v>
       </c>
       <c r="J19">
-        <v>0.359375</v>
+        <v>0.3644859813084112</v>
       </c>
       <c r="K19">
-        <v>0.140625</v>
+        <v>0.1588785046728972</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.046875</v>
+        <v>0.02803738317757009</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.015625</v>
+        <v>0.02803738317757009</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.15625</v>
+        <v>0.1308411214953271</v>
       </c>
     </row>
   </sheetData>
